--- a/Question_Set2/Programming skills/Android Development Using Java.xlsx
+++ b/Question_Set2/Programming skills/Android Development Using Java.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You are developing an Android application and need to securely transfer a user's username from LoginActivity to UserProfileActivity. The username must not persist in memory after being transferred.Which action should you take?", 'ques_type': 2, 'options': ['Bundle the username into a key-value pair and pass it with an Intent.', 'Use a shared ViewModel to temporarily store the data and access it in UserProfileActivity.', 'Implement a custom Parcelable class for the username and pass it through an Intent.', 'Save the username to SharedPreferences and access it in UserProfileActivity.'], 'score': 'Bundle the username into a key-value pair and pass it with an Intent.'}, {'title': 'You need to review the functionality of the MainActivity in an Android application designed to display a simple greeting when opened. You have access to the activity_main.xml layout file, which is designed to present a text message, and the MainActivity.java code, which is supposed to control the app\'s main screen behavior, both of which are shown below.What will happen when the MainActivity is launched?activity_main.xml:&amp;lt?xml version="1.0" encoding="utf-8"?&amp;gt\n&amp;ltRelativeLayout xmlns:android="http://schemas.android.com/apk/res/android"\n           xmlns:tools="http://schemas.android.com/tools"\n           android:layout_width="match_parent"\n           android:layout_height="match_parent"\n           tools:context=".MainActivity"&amp;gt\n \n           &amp;ltTextView\n           android:layout_width="wrap_content"\n           android:layout_height="wrap_content"\n           android:text="HelloWorld!" /&amp;gt\n \n&amp;lt/RelativeLayout&amp;gt\n MainActivity.java:public class MainActivity extends AppCompatActivity {\n \n           @Override\n           protected void onCreate(Bundle savedInstanceState) {\n                       super.onCreate(savedInstanceState)\n           \n           }', 'ques_type': 2, 'options': ['The app will immediately crash.', 'The app will display a blank screen.', 'The app will work perfectly, and "HelloWorld!" will be displayed.', 'The app will run in the background.'], 'score': 'The app will display a blank screen.'}, {'title': 'You are reviewing the XML layout for an Android application\'s user interface, the code for which is shown below.Which of the following screens shown in the image below will be generated?&amp;lt?xml version="1.0" encoding="utf-8"?&amp;gt\n&amp;ltRelativeLayout xmlns:android="http://schemas.android.com/apk/res/android"\n           xmlns:tools="http://schemas.android.com/tools"\n           android:layout_width="match_parent"\n           android:layout_height="match_parent"\n           tools:context=".MainActivity"&amp;gt\n           &amp;ltLinearLayout\n                       android:layout_width="match_parent"\n                       android:layout_height="match_parent"\n                       android:orientation="horizontal"&amp;gt\n                       &amp;ltButton\n                                   android:layout_width="0dp"\n                                   android:layout_height="wrap_content"\n                                   android:layout_margin="10dp"\n                                   android:layout_weight="4"\n                                   android:text="BTN1i" /&amp;gt\n                       &amp;ltButton\n                                   android:layout_width="0dp"\n                                   android:layout_height="wrap_content"\n                                   android:layout_margin="10dp"\n                                   android:layout_weight="4"\n                                   android:text="BITN2" /&amp;gt\n           &amp;lt/LinearLayout&amp;gt\n&amp;lt/RelativeLayout&amp;gt', 'ques_type': 2, 'options': ['Image A', 'Image B', 'Image C', 'Image D'], 'score': 'Image D'}, {'title': "You are a software developer working on a Java project. You're writing unit tests for a new feature using JUnit, which involves creating temporary files and modifying global variables. These need to be cleaned up after each test to avoid interference with subsequent tests.Which JUnit annotation should you use to execute this cleanup code?", 'ques_type': 2, 'options': ['@BeforeClass ', '@After', '@AfterClass', '@Before'], 'score': '@After'}]</t>
+    <t>questions = [
+    {
+        "title": "You are developing an Android application and need to securely transfer a user's username from LoginActivity to UserProfileActivity. The username must not persist in memory after being transferred.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Bundle the username into a key-value pair and pass it with an Intent.",
+            "Use a shared ViewModel to temporarily store the data and access it in UserProfileActivity.",
+            "Implement a custom Parcelable class for the username and pass it through an Intent.",
+            "Save the username to SharedPreferences and access it in UserProfileActivity."
+        ],
+        "score": "Bundle the username into a key-value pair and pass it with an Intent."
+    },
+    {
+        "title": "You need to review the functionality of the MainActivity in an Android application designed to display a simple greeting when opened. You have access to the activity_main.xml layout file, which is designed to present a text message, and the MainActivity.java code, which is supposed to control the app's main screen behavior, both of which are shown below.What will happen when the MainActivity is launched?activity_main.xml:&amp;lt?xml version=\"1.0\" encoding=\"utf-8\"?&amp;gt\n&amp;ltRelativeLayout xmlns:android=\"http://schemas.android.com/apk/res/android\"\n           xmlns:tools=\"http://schemas.android.com/tools\"\n           android:layout_width=\"match_parent\"\n           android:layout_height=\"match_parent\"\n           tools:context=\".MainActivity\"&amp;gt\n \n           &amp;ltTextView\n           android:layout_width=\"wrap_content\"\n           android:layout_height=\"wrap_content\"\n           android:text=\"HelloWorld!\" /&amp;gt\n \n&amp;lt/RelativeLayout&amp;gt\n MainActivity.java:public class MainActivity extends AppCompatActivity {\n \n           @Override\n           protected void onCreate(Bundle savedInstanceState) {\n                       super.onCreate(savedInstanceState)\n           \n           }",
+        "ques_type": 2,
+        "options": [
+            "The app will immediately crash.",
+            "The app will display a blank screen.",
+            "The app will work perfectly, and \"HelloWorld!\" will be displayed.",
+            "The app will run in the background."
+        ],
+        "score": "The app will display a blank screen."
+    },
+    {
+        "title": "You are reviewing the XML layout for an Android application's user interface, the code for which is shown below.Which of the following screens shown in the image below will be generated?&amp;lt?xml version=\"1.0\" encoding=\"utf-8\"?&amp;gt\n&amp;ltRelativeLayout xmlns:android=\"http://schemas.android.com/apk/res/android\"\n           xmlns:tools=\"http://schemas.android.com/tools\"\n           android:layout_width=\"match_parent\"\n           android:layout_height=\"match_parent\"\n           tools:context=\".MainActivity\"&amp;gt\n           &amp;ltLinearLayout\n                       android:layout_width=\"match_parent\"\n                       android:layout_height=\"match_parent\"\n                       android:orientation=\"horizontal\"&amp;gt\n                       &amp;ltButton\n                                   android:layout_width=\"0dp\"\n                                   android:layout_height=\"wrap_content\"\n                                   android:layout_margin=\"10dp\"\n                                   android:layout_weight=\"4\"\n                                   android:text=\"BTN1i\" /&amp;gt\n                       &amp;ltButton\n                                   android:layout_width=\"0dp\"\n                                   android:layout_height=\"wrap_content\"\n                                   android:layout_margin=\"10dp\"\n                                   android:layout_weight=\"4\"\n                                   android:text=\"BITN2\" /&amp;gt\n           &amp;lt/LinearLayout&amp;gt\n&amp;lt/RelativeLayout&amp;gt",
+        "ques_type": 2,
+        "options": [
+            "Image A",
+            "Image B",
+            "Image C",
+            "Image D"
+        ],
+        "score": "Image D"
+    },
+    {
+        "title": "You are a software developer working on a Java project. You're writing unit tests for a new feature using JUnit, which involves creating temporary files and modifying global variables. These need to be cleaned up after each test to avoid interference with subsequent tests.Which JUnit annotation should you use to execute this cleanup code?",
+        "ques_type": 2,
+        "options": [
+            "@BeforeClass ",
+            "@After",
+            "@AfterClass",
+            "@Before"
+        ],
+        "score": "@After"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
